--- a/计算文件.xlsx
+++ b/计算文件.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>荷载编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>宿舍永久荷载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向风荷载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,15 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,19 +393,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -408,113 +413,161 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>SUM(B3:B7)</f>
         <v>3.8899999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>SUM(B14:B16)</f>
         <v>3.44</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <f>SUM(B23:B24)*27.55*9.96</f>
+        <v>107.01522000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/计算文件.xlsx
+++ b/计算文件.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="各类荷载" sheetId="1" r:id="rId1"/>
+    <sheet name="地震计算" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk482827730" localSheetId="0">各类荷载!$A$1</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>荷载编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,23 +47,32 @@
   <si>
     <t>横向风荷载</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,10 +119,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,24 +405,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -420,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -428,7 +438,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -436,7 +446,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -444,7 +454,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -452,7 +462,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -460,7 +470,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -469,13 +479,13 @@
         <v>3.8899999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -491,7 +501,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -499,7 +509,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -507,7 +517,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -516,21 +526,21 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -546,7 +556,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -554,7 +564,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -573,4 +583,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>20634.7</v>
+      </c>
+      <c r="C2">
+        <f>B2/B5*250.72</f>
+        <v>110.24447942488686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>17528.740000000002</v>
+      </c>
+      <c r="C3">
+        <f>B3/B5*250.72</f>
+        <v>93.65034705007541</v>
+      </c>
+      <c r="D3">
+        <f>C2+C3</f>
+        <v>203.89482647496226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>8764.3700000000008</v>
+      </c>
+      <c r="C4">
+        <f>B4/B5*250.72</f>
+        <v>46.825173525037705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>46927.810000000005</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>250.71999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>